--- a/Ph_Mc_LiXinErFeng/bin/Debug/net6.0/LXEFData(4752).xlsx
+++ b/Ph_Mc_LiXinErFeng/bin/Debug/net6.0/LXEFData(4752).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Work\12-冠宇数采项目\ReadFromStructArray\LiXinErFeng_MC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA667231-5D54-46C3-BC97-36C7B70EBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9706A41-04FC-4731-884F-FFD5C2286504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27900" yWindow="1095" windowWidth="15060" windowHeight="15345" tabRatio="579" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23430" yWindow="1965" windowWidth="22350" windowHeight="14670" tabRatio="579" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="2936">
   <si>
     <t>设定值/实际值</t>
   </si>
@@ -7803,10 +7803,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9003</t>
   </si>
   <si>
@@ -10087,6 +10083,22 @@
   </si>
   <si>
     <t>DM8021.13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集值（4752）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集值（4752）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -11164,8 +11176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11212,7 +11224,7 @@
         <v>1463</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1461</v>
@@ -11236,7 +11248,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1461</v>
@@ -11260,7 +11272,7 @@
         <v>92</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1461</v>
@@ -11284,7 +11296,7 @@
         <v>94</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1461</v>
@@ -11308,7 +11320,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1461</v>
@@ -11332,7 +11344,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1461</v>
@@ -11356,7 +11368,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1461</v>
@@ -11380,7 +11392,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1461</v>
@@ -11404,7 +11416,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1461</v>
@@ -11428,7 +11440,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1461</v>
@@ -11452,7 +11464,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1461</v>
@@ -11476,7 +11488,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>1461</v>
@@ -11500,7 +11512,7 @@
         <v>112</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>1461</v>
@@ -11524,7 +11536,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>1461</v>
@@ -11548,7 +11560,7 @@
         <v>116</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>1461</v>
@@ -11572,7 +11584,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>1461</v>
@@ -11596,7 +11608,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>1461</v>
@@ -11620,7 +11632,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>1461</v>
@@ -11644,7 +11656,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>1461</v>
@@ -11668,7 +11680,7 @@
         <v>126</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>1461</v>
@@ -11692,7 +11704,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>1461</v>
@@ -11716,7 +11728,7 @@
         <v>130</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>1461</v>
@@ -11740,7 +11752,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>1461</v>
@@ -11764,7 +11776,7 @@
         <v>134</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>1461</v>
@@ -11788,7 +11800,7 @@
         <v>136</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>1461</v>
@@ -11812,7 +11824,7 @@
         <v>138</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>1461</v>
@@ -11836,7 +11848,7 @@
         <v>140</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>1461</v>
@@ -11860,7 +11872,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>1461</v>
@@ -11884,7 +11896,7 @@
         <v>144</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>1461</v>
@@ -11908,7 +11920,7 @@
         <v>146</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>1461</v>
@@ -11932,7 +11944,7 @@
         <v>148</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1461</v>
@@ -11956,7 +11968,7 @@
         <v>150</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1461</v>
@@ -11980,7 +11992,7 @@
         <v>152</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>1461</v>
@@ -12004,7 +12016,7 @@
         <v>154</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>1461</v>
@@ -12028,7 +12040,7 @@
         <v>156</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>1461</v>
@@ -12052,7 +12064,7 @@
         <v>158</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>1461</v>
@@ -12076,7 +12088,7 @@
         <v>160</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>1461</v>
@@ -12100,7 +12112,7 @@
         <v>162</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>1461</v>
@@ -12124,7 +12136,7 @@
         <v>164</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>1461</v>
@@ -12148,7 +12160,7 @@
         <v>166</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>1461</v>
@@ -12172,7 +12184,7 @@
         <v>168</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>1461</v>
@@ -12196,7 +12208,7 @@
         <v>170</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>1461</v>
@@ -12220,7 +12232,7 @@
         <v>172</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>1461</v>
@@ -12244,7 +12256,7 @@
         <v>174</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>1461</v>
@@ -12268,7 +12280,7 @@
         <v>176</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>1461</v>
@@ -12292,7 +12304,7 @@
         <v>178</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>1461</v>
@@ -12316,7 +12328,7 @@
         <v>180</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>1461</v>
@@ -12340,7 +12352,7 @@
         <v>182</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>1461</v>
@@ -12364,7 +12376,7 @@
         <v>184</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>1461</v>
@@ -12388,7 +12400,7 @@
         <v>186</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>1461</v>
@@ -12412,7 +12424,7 @@
         <v>188</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>1461</v>
@@ -12436,7 +12448,7 @@
         <v>190</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>1461</v>
@@ -12460,7 +12472,7 @@
         <v>192</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>1461</v>
@@ -12484,7 +12496,7 @@
         <v>194</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>1461</v>
@@ -12508,7 +12520,7 @@
         <v>196</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>1461</v>
@@ -12532,7 +12544,7 @@
         <v>198</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>1461</v>
@@ -12556,7 +12568,7 @@
         <v>200</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>1461</v>
@@ -12580,7 +12592,7 @@
         <v>202</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>1461</v>
@@ -12604,7 +12616,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>1461</v>
@@ -12628,7 +12640,7 @@
         <v>206</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>1461</v>
@@ -12652,7 +12664,7 @@
         <v>208</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>1461</v>
@@ -12676,7 +12688,7 @@
         <v>210</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>1461</v>
@@ -12700,7 +12712,7 @@
         <v>212</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>1461</v>
@@ -12724,7 +12736,7 @@
         <v>214</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>1461</v>
@@ -12748,7 +12760,7 @@
         <v>216</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>1461</v>
@@ -12772,7 +12784,7 @@
         <v>218</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>1461</v>
@@ -12796,7 +12808,7 @@
         <v>220</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>1461</v>
@@ -12820,7 +12832,7 @@
         <v>222</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>1461</v>
@@ -12844,7 +12856,7 @@
         <v>224</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>1461</v>
@@ -12868,7 +12880,7 @@
         <v>226</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>1461</v>
@@ -12892,7 +12904,7 @@
         <v>228</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1461</v>
@@ -12916,7 +12928,7 @@
         <v>230</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>1461</v>
@@ -12940,7 +12952,7 @@
         <v>232</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1461</v>
@@ -12964,7 +12976,7 @@
         <v>234</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>1461</v>
@@ -12988,7 +13000,7 @@
         <v>236</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>1461</v>
@@ -13012,7 +13024,7 @@
         <v>238</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>1461</v>
@@ -13036,7 +13048,7 @@
         <v>240</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>1461</v>
@@ -13060,7 +13072,7 @@
         <v>242</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>1461</v>
@@ -13084,7 +13096,7 @@
         <v>244</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>1461</v>
@@ -13108,7 +13120,7 @@
         <v>246</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D81" s="23" t="s">
         <v>1461</v>
@@ -13132,7 +13144,7 @@
         <v>248</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>1461</v>
@@ -13156,7 +13168,7 @@
         <v>250</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>1461</v>
@@ -13180,7 +13192,7 @@
         <v>252</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>1461</v>
@@ -13204,7 +13216,7 @@
         <v>254</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1461</v>
@@ -13228,7 +13240,7 @@
         <v>256</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>1461</v>
@@ -13252,7 +13264,7 @@
         <v>258</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>1461</v>
@@ -13276,7 +13288,7 @@
         <v>260</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>1461</v>
@@ -13300,7 +13312,7 @@
         <v>261</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1461</v>
@@ -13324,7 +13336,7 @@
         <v>263</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>1461</v>
@@ -13348,7 +13360,7 @@
         <v>265</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1461</v>
@@ -13372,7 +13384,7 @@
         <v>267</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>1461</v>
@@ -13396,7 +13408,7 @@
         <v>269</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>1461</v>
@@ -13420,7 +13432,7 @@
         <v>271</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>1461</v>
@@ -13444,7 +13456,7 @@
         <v>273</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>1461</v>
@@ -13468,7 +13480,7 @@
         <v>275</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>1461</v>
@@ -13492,7 +13504,7 @@
         <v>277</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>1461</v>
@@ -13516,7 +13528,7 @@
         <v>279</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>1461</v>
@@ -13540,7 +13552,7 @@
         <v>281</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>1461</v>
@@ -13564,7 +13576,7 @@
         <v>283</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>1461</v>
@@ -13588,7 +13600,7 @@
         <v>285</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>1461</v>
@@ -13612,7 +13624,7 @@
         <v>287</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>1461</v>
@@ -13636,7 +13648,7 @@
         <v>289</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D103" s="23" t="s">
         <v>1461</v>
@@ -13660,7 +13672,7 @@
         <v>291</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>1461</v>
@@ -13684,7 +13696,7 @@
         <v>293</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D105" s="23" t="s">
         <v>1461</v>
@@ -13708,7 +13720,7 @@
         <v>295</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>1461</v>
@@ -13732,7 +13744,7 @@
         <v>297</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D107" s="23" t="s">
         <v>1461</v>
@@ -13756,7 +13768,7 @@
         <v>299</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>1461</v>
@@ -13780,7 +13792,7 @@
         <v>301</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>1461</v>
@@ -13804,7 +13816,7 @@
         <v>303</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>1461</v>
@@ -13828,7 +13840,7 @@
         <v>305</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>1461</v>
@@ -13852,7 +13864,7 @@
         <v>307</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>1461</v>
@@ -13876,7 +13888,7 @@
         <v>309</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>1461</v>
@@ -13900,7 +13912,7 @@
         <v>311</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D114" s="23" t="s">
         <v>1461</v>
@@ -13924,7 +13936,7 @@
         <v>312</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>1461</v>
@@ -13948,7 +13960,7 @@
         <v>314</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>1461</v>
@@ -13972,7 +13984,7 @@
         <v>316</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>1461</v>
@@ -13996,7 +14008,7 @@
         <v>318</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>1461</v>
@@ -14020,7 +14032,7 @@
         <v>320</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>1461</v>
@@ -14044,7 +14056,7 @@
         <v>322</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>1461</v>
@@ -14068,7 +14080,7 @@
         <v>324</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>1461</v>
@@ -14092,7 +14104,7 @@
         <v>326</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>1461</v>
@@ -14116,7 +14128,7 @@
         <v>328</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D123" s="23" t="s">
         <v>1461</v>
@@ -14140,7 +14152,7 @@
         <v>330</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D124" s="23" t="s">
         <v>1461</v>
@@ -14164,7 +14176,7 @@
         <v>332</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D125" s="23" t="s">
         <v>1461</v>
@@ -14188,7 +14200,7 @@
         <v>334</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D126" s="23" t="s">
         <v>1461</v>
@@ -14212,7 +14224,7 @@
         <v>336</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>1461</v>
@@ -14236,7 +14248,7 @@
         <v>338</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>1461</v>
@@ -14260,7 +14272,7 @@
         <v>340</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>1461</v>
@@ -14284,7 +14296,7 @@
         <v>342</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>1461</v>
@@ -14308,7 +14320,7 @@
         <v>344</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>1461</v>
@@ -14332,7 +14344,7 @@
         <v>346</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>1461</v>
@@ -14356,7 +14368,7 @@
         <v>348</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>1461</v>
@@ -14380,7 +14392,7 @@
         <v>349</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>1461</v>
@@ -14404,7 +14416,7 @@
         <v>350</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>1461</v>
@@ -14428,7 +14440,7 @@
         <v>352</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>1461</v>
@@ -14452,7 +14464,7 @@
         <v>354</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>1461</v>
@@ -14476,7 +14488,7 @@
         <v>356</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>1461</v>
@@ -14500,7 +14512,7 @@
         <v>358</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>1461</v>
@@ -14524,7 +14536,7 @@
         <v>360</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>1461</v>
@@ -14548,7 +14560,7 @@
         <v>362</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D141" s="23" t="s">
         <v>1461</v>
@@ -14572,7 +14584,7 @@
         <v>364</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>1461</v>
@@ -14596,7 +14608,7 @@
         <v>366</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D143" s="23" t="s">
         <v>1461</v>
@@ -14620,7 +14632,7 @@
         <v>368</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D144" s="23" t="s">
         <v>1461</v>
@@ -14644,7 +14656,7 @@
         <v>369</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D145" s="23" t="s">
         <v>1461</v>
@@ -14668,7 +14680,7 @@
         <v>371</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>1461</v>
@@ -14692,7 +14704,7 @@
         <v>373</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>1461</v>
@@ -14716,7 +14728,7 @@
         <v>375</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>1461</v>
@@ -14740,7 +14752,7 @@
         <v>377</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>1461</v>
@@ -14764,7 +14776,7 @@
         <v>379</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D150" s="23" t="s">
         <v>1461</v>
@@ -14788,7 +14800,7 @@
         <v>381</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D151" s="23" t="s">
         <v>1461</v>
@@ -14812,7 +14824,7 @@
         <v>383</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D152" s="23" t="s">
         <v>1461</v>
@@ -14836,7 +14848,7 @@
         <v>385</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D153" s="23" t="s">
         <v>1461</v>
@@ -14860,7 +14872,7 @@
         <v>387</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D154" s="23" t="s">
         <v>1461</v>
@@ -14884,7 +14896,7 @@
         <v>389</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D155" s="23" t="s">
         <v>1461</v>
@@ -14908,7 +14920,7 @@
         <v>391</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D156" s="23" t="s">
         <v>1461</v>
@@ -14932,7 +14944,7 @@
         <v>393</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D157" s="23" t="s">
         <v>1461</v>
@@ -14956,7 +14968,7 @@
         <v>395</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D158" s="23" t="s">
         <v>1461</v>
@@ -14980,7 +14992,7 @@
         <v>397</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D159" s="23" t="s">
         <v>1461</v>
@@ -15004,7 +15016,7 @@
         <v>399</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D160" s="23" t="s">
         <v>1461</v>
@@ -15028,7 +15040,7 @@
         <v>401</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D161" s="23" t="s">
         <v>1461</v>
@@ -15052,7 +15064,7 @@
         <v>403</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D162" s="23" t="s">
         <v>1461</v>
@@ -15076,7 +15088,7 @@
         <v>405</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D163" s="23" t="s">
         <v>1461</v>
@@ -15100,7 +15112,7 @@
         <v>407</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D164" s="23" t="s">
         <v>1461</v>
@@ -15124,7 +15136,7 @@
         <v>409</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D165" s="23" t="s">
         <v>1461</v>
@@ -15148,7 +15160,7 @@
         <v>411</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D166" s="23" t="s">
         <v>1461</v>
@@ -15172,7 +15184,7 @@
         <v>413</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D167" s="23" t="s">
         <v>1461</v>
@@ -15196,7 +15208,7 @@
         <v>415</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D168" s="23" t="s">
         <v>1461</v>
@@ -15220,7 +15232,7 @@
         <v>417</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D169" s="23" t="s">
         <v>1461</v>
@@ -15244,7 +15256,7 @@
         <v>419</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D170" s="23" t="s">
         <v>1461</v>
@@ -15268,7 +15280,7 @@
         <v>421</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D171" s="23" t="s">
         <v>1461</v>
@@ -15292,7 +15304,7 @@
         <v>423</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D172" s="23" t="s">
         <v>1461</v>
@@ -15316,7 +15328,7 @@
         <v>425</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D173" s="23" t="s">
         <v>1461</v>
@@ -15340,7 +15352,7 @@
         <v>427</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D174" s="23" t="s">
         <v>1461</v>
@@ -15364,7 +15376,7 @@
         <v>429</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D175" s="23" t="s">
         <v>1461</v>
@@ -15388,7 +15400,7 @@
         <v>431</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D176" s="23" t="s">
         <v>1461</v>
@@ -15412,7 +15424,7 @@
         <v>433</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D177" s="23" t="s">
         <v>1461</v>
@@ -15436,7 +15448,7 @@
         <v>435</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D178" s="23" t="s">
         <v>1461</v>
@@ -15460,7 +15472,7 @@
         <v>437</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D179" s="23" t="s">
         <v>1461</v>
@@ -15484,7 +15496,7 @@
         <v>439</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>1461</v>
@@ -15508,7 +15520,7 @@
         <v>441</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D181" s="23" t="s">
         <v>1461</v>
@@ -15532,7 +15544,7 @@
         <v>443</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D182" s="23" t="s">
         <v>1461</v>
@@ -15556,7 +15568,7 @@
         <v>445</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>1461</v>
@@ -15580,7 +15592,7 @@
         <v>447</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D184" s="23" t="s">
         <v>1461</v>
@@ -15604,7 +15616,7 @@
         <v>449</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D185" s="23" t="s">
         <v>1461</v>
@@ -15628,7 +15640,7 @@
         <v>451</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D186" s="23" t="s">
         <v>1461</v>
@@ -15652,7 +15664,7 @@
         <v>453</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D187" s="23" t="s">
         <v>1461</v>
@@ -15676,7 +15688,7 @@
         <v>455</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D188" s="23" t="s">
         <v>1461</v>
@@ -15700,7 +15712,7 @@
         <v>457</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D189" s="23" t="s">
         <v>1461</v>
@@ -15724,7 +15736,7 @@
         <v>459</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D190" s="23" t="s">
         <v>1461</v>
@@ -15748,7 +15760,7 @@
         <v>461</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D191" s="23" t="s">
         <v>1461</v>
@@ -15772,7 +15784,7 @@
         <v>462</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D192" s="23" t="s">
         <v>1461</v>
@@ -15796,7 +15808,7 @@
         <v>463</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D193" s="23" t="s">
         <v>1461</v>
@@ -15820,7 +15832,7 @@
         <v>465</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D194" s="23" t="s">
         <v>1461</v>
@@ -15844,7 +15856,7 @@
         <v>467</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D195" s="23" t="s">
         <v>1461</v>
@@ -15868,7 +15880,7 @@
         <v>469</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D196" s="23" t="s">
         <v>1461</v>
@@ -15892,7 +15904,7 @@
         <v>471</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D197" s="23" t="s">
         <v>1461</v>
@@ -15916,7 +15928,7 @@
         <v>473</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D198" s="23" t="s">
         <v>1461</v>
@@ -15940,7 +15952,7 @@
         <v>475</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D199" s="23" t="s">
         <v>1461</v>
@@ -15964,7 +15976,7 @@
         <v>477</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D200" s="23" t="s">
         <v>1461</v>
@@ -15988,7 +16000,7 @@
         <v>479</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D201" s="23" t="s">
         <v>1461</v>
@@ -16012,7 +16024,7 @@
         <v>481</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D202" s="23" t="s">
         <v>1461</v>
@@ -16036,7 +16048,7 @@
         <v>483</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D203" s="23" t="s">
         <v>1461</v>
@@ -16060,7 +16072,7 @@
         <v>485</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D204" s="23" t="s">
         <v>1461</v>
@@ -16084,7 +16096,7 @@
         <v>487</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>1461</v>
@@ -16108,7 +16120,7 @@
         <v>489</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>1461</v>
@@ -16132,7 +16144,7 @@
         <v>491</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D207" s="23" t="s">
         <v>1461</v>
@@ -16156,7 +16168,7 @@
         <v>493</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D208" s="23" t="s">
         <v>1461</v>
@@ -16180,7 +16192,7 @@
         <v>495</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D209" s="23" t="s">
         <v>1461</v>
@@ -16204,7 +16216,7 @@
         <v>497</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D210" s="23" t="s">
         <v>1461</v>
@@ -16228,7 +16240,7 @@
         <v>499</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D211" s="23" t="s">
         <v>1461</v>
@@ -16252,7 +16264,7 @@
         <v>501</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D212" s="23" t="s">
         <v>1461</v>
@@ -16276,7 +16288,7 @@
         <v>503</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D213" s="23" t="s">
         <v>1461</v>
@@ -16300,7 +16312,7 @@
         <v>505</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D214" s="23" t="s">
         <v>1461</v>
@@ -16324,7 +16336,7 @@
         <v>507</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D215" s="23" t="s">
         <v>1461</v>
@@ -16348,7 +16360,7 @@
         <v>509</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D216" s="23" t="s">
         <v>1461</v>
@@ -16372,7 +16384,7 @@
         <v>511</v>
       </c>
       <c r="C217" s="23" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D217" s="23" t="s">
         <v>1461</v>
@@ -16396,7 +16408,7 @@
         <v>513</v>
       </c>
       <c r="C218" s="23" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D218" s="23" t="s">
         <v>1461</v>
@@ -16420,7 +16432,7 @@
         <v>515</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D219" s="23" t="s">
         <v>1461</v>
@@ -16444,7 +16456,7 @@
         <v>517</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D220" s="23" t="s">
         <v>1461</v>
@@ -16468,7 +16480,7 @@
         <v>519</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D221" s="23" t="s">
         <v>1461</v>
@@ -16492,7 +16504,7 @@
         <v>521</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D222" s="23" t="s">
         <v>1461</v>
@@ -16516,7 +16528,7 @@
         <v>523</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D223" s="23" t="s">
         <v>1461</v>
@@ -16540,7 +16552,7 @@
         <v>524</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D224" s="23" t="s">
         <v>1461</v>
@@ -16564,7 +16576,7 @@
         <v>525</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D225" s="23" t="s">
         <v>1461</v>
@@ -16588,7 +16600,7 @@
         <v>527</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D226" s="23" t="s">
         <v>1461</v>
@@ -16612,7 +16624,7 @@
         <v>529</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D227" s="23" t="s">
         <v>1461</v>
@@ -16636,7 +16648,7 @@
         <v>531</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D228" s="23" t="s">
         <v>1461</v>
@@ -16660,7 +16672,7 @@
         <v>533</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D229" s="23" t="s">
         <v>1461</v>
@@ -16684,7 +16696,7 @@
         <v>535</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D230" s="23" t="s">
         <v>1461</v>
@@ -16708,7 +16720,7 @@
         <v>537</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D231" s="23" t="s">
         <v>1461</v>
@@ -16732,7 +16744,7 @@
         <v>539</v>
       </c>
       <c r="C232" s="23" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D232" s="23" t="s">
         <v>1461</v>
@@ -16756,7 +16768,7 @@
         <v>541</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D233" s="23" t="s">
         <v>1461</v>
@@ -16780,7 +16792,7 @@
         <v>543</v>
       </c>
       <c r="C234" s="23" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>1461</v>
@@ -16804,7 +16816,7 @@
         <v>545</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D235" s="23" t="s">
         <v>1461</v>
@@ -16828,7 +16840,7 @@
         <v>547</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D236" s="23" t="s">
         <v>1461</v>
@@ -16852,7 +16864,7 @@
         <v>549</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D237" s="23" t="s">
         <v>1461</v>
@@ -16876,7 +16888,7 @@
         <v>551</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D238" s="23" t="s">
         <v>1461</v>
@@ -16900,7 +16912,7 @@
         <v>553</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>1461</v>
@@ -16924,7 +16936,7 @@
         <v>555</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D240" s="23" t="s">
         <v>1461</v>
@@ -16948,7 +16960,7 @@
         <v>557</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D241" s="23" t="s">
         <v>1461</v>
@@ -16972,7 +16984,7 @@
         <v>559</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D242" s="23" t="s">
         <v>1461</v>
@@ -16996,7 +17008,7 @@
         <v>561</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D243" s="23" t="s">
         <v>1461</v>
@@ -17020,7 +17032,7 @@
         <v>563</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D244" s="23" t="s">
         <v>1461</v>
@@ -17044,7 +17056,7 @@
         <v>565</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D245" s="23" t="s">
         <v>1461</v>
@@ -17068,7 +17080,7 @@
         <v>567</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D246" s="23" t="s">
         <v>1461</v>
@@ -17092,7 +17104,7 @@
         <v>569</v>
       </c>
       <c r="C247" s="23" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D247" s="23" t="s">
         <v>1461</v>
@@ -17116,7 +17128,7 @@
         <v>571</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D248" s="23" t="s">
         <v>1461</v>
@@ -17140,7 +17152,7 @@
         <v>573</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D249" s="23" t="s">
         <v>1461</v>
@@ -17164,7 +17176,7 @@
         <v>575</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D250" s="23" t="s">
         <v>1461</v>
@@ -17188,7 +17200,7 @@
         <v>577</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D251" s="23" t="s">
         <v>1461</v>
@@ -17212,7 +17224,7 @@
         <v>579</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D252" s="23" t="s">
         <v>1461</v>
@@ -17236,7 +17248,7 @@
         <v>581</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D253" s="23" t="s">
         <v>1461</v>
@@ -17260,7 +17272,7 @@
         <v>583</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D254" s="23" t="s">
         <v>1461</v>
@@ -17284,7 +17296,7 @@
         <v>585</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D255" s="23" t="s">
         <v>1461</v>
@@ -17308,7 +17320,7 @@
         <v>587</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D256" s="23" t="s">
         <v>1461</v>
@@ -17332,7 +17344,7 @@
         <v>589</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D257" s="23" t="s">
         <v>1461</v>
@@ -17356,7 +17368,7 @@
         <v>591</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D258" s="23" t="s">
         <v>1461</v>
@@ -17380,7 +17392,7 @@
         <v>593</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>1461</v>
@@ -17404,7 +17416,7 @@
         <v>595</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D260" s="23" t="s">
         <v>1461</v>
@@ -17428,7 +17440,7 @@
         <v>597</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D261" s="23" t="s">
         <v>1461</v>
@@ -17452,7 +17464,7 @@
         <v>599</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D262" s="23" t="s">
         <v>1461</v>
@@ -17476,7 +17488,7 @@
         <v>601</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>1461</v>
@@ -17500,7 +17512,7 @@
         <v>603</v>
       </c>
       <c r="C264" s="23" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D264" s="23" t="s">
         <v>1461</v>
@@ -17524,7 +17536,7 @@
         <v>605</v>
       </c>
       <c r="C265" s="23" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D265" s="23" t="s">
         <v>1461</v>
@@ -17548,7 +17560,7 @@
         <v>607</v>
       </c>
       <c r="C266" s="23" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D266" s="23" t="s">
         <v>1461</v>
@@ -17572,7 +17584,7 @@
         <v>609</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D267" s="23" t="s">
         <v>1461</v>
@@ -17596,7 +17608,7 @@
         <v>611</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D268" s="23" t="s">
         <v>1461</v>
@@ -17620,7 +17632,7 @@
         <v>613</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D269" s="23" t="s">
         <v>1461</v>
@@ -17644,7 +17656,7 @@
         <v>615</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D270" s="23" t="s">
         <v>1461</v>
@@ -17668,7 +17680,7 @@
         <v>617</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D271" s="23" t="s">
         <v>1461</v>
@@ -17692,7 +17704,7 @@
         <v>619</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D272" s="23" t="s">
         <v>1461</v>
@@ -17716,7 +17728,7 @@
         <v>621</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D273" s="23" t="s">
         <v>1461</v>
@@ -17740,7 +17752,7 @@
         <v>623</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D274" s="23" t="s">
         <v>1461</v>
@@ -17764,7 +17776,7 @@
         <v>625</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D275" s="23" t="s">
         <v>1461</v>
@@ -17788,7 +17800,7 @@
         <v>627</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D276" s="23" t="s">
         <v>1461</v>
@@ -17812,7 +17824,7 @@
         <v>629</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D277" s="23" t="s">
         <v>1461</v>
@@ -17836,7 +17848,7 @@
         <v>631</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D278" s="23" t="s">
         <v>1461</v>
@@ -17860,7 +17872,7 @@
         <v>633</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D279" s="23" t="s">
         <v>1461</v>
@@ -17884,7 +17896,7 @@
         <v>635</v>
       </c>
       <c r="C280" s="23" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D280" s="23" t="s">
         <v>1461</v>
@@ -17908,7 +17920,7 @@
         <v>636</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D281" s="23" t="s">
         <v>1461</v>
@@ -17932,7 +17944,7 @@
         <v>638</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D282" s="23" t="s">
         <v>1461</v>
@@ -17956,7 +17968,7 @@
         <v>640</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D283" s="23" t="s">
         <v>1461</v>
@@ -17980,7 +17992,7 @@
         <v>642</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D284" s="23" t="s">
         <v>1461</v>
@@ -18004,7 +18016,7 @@
         <v>644</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D285" s="23" t="s">
         <v>1461</v>
@@ -18028,7 +18040,7 @@
         <v>646</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D286" s="23" t="s">
         <v>1461</v>
@@ -18052,7 +18064,7 @@
         <v>648</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D287" s="23" t="s">
         <v>1461</v>
@@ -18076,7 +18088,7 @@
         <v>650</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D288" s="23" t="s">
         <v>1461</v>
@@ -18100,7 +18112,7 @@
         <v>652</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D289" s="23" t="s">
         <v>1461</v>
@@ -18124,7 +18136,7 @@
         <v>653</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D290" s="23" t="s">
         <v>1461</v>
@@ -18148,7 +18160,7 @@
         <v>655</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D291" s="23" t="s">
         <v>1461</v>
@@ -18172,7 +18184,7 @@
         <v>657</v>
       </c>
       <c r="C292" s="23" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D292" s="23" t="s">
         <v>1461</v>
@@ -18196,7 +18208,7 @@
         <v>659</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D293" s="23" t="s">
         <v>1461</v>
@@ -18220,7 +18232,7 @@
         <v>661</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D294" s="23" t="s">
         <v>1461</v>
@@ -18244,7 +18256,7 @@
         <v>663</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D295" s="23" t="s">
         <v>1461</v>
@@ -18268,7 +18280,7 @@
         <v>665</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D296" s="23" t="s">
         <v>1461</v>
@@ -18292,7 +18304,7 @@
         <v>667</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D297" s="23" t="s">
         <v>1461</v>
@@ -18316,7 +18328,7 @@
         <v>669</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D298" s="23" t="s">
         <v>1461</v>
@@ -18340,7 +18352,7 @@
         <v>671</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D299" s="23" t="s">
         <v>1461</v>
@@ -18364,7 +18376,7 @@
         <v>673</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D300" s="23" t="s">
         <v>1461</v>
@@ -18388,7 +18400,7 @@
         <v>675</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D301" s="23" t="s">
         <v>1461</v>
@@ -18412,7 +18424,7 @@
         <v>677</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D302" s="23" t="s">
         <v>1461</v>
@@ -18436,7 +18448,7 @@
         <v>679</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D303" s="23" t="s">
         <v>1461</v>
@@ -18460,7 +18472,7 @@
         <v>681</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D304" s="23" t="s">
         <v>1461</v>
@@ -18484,7 +18496,7 @@
         <v>683</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D305" s="23" t="s">
         <v>1461</v>
@@ -18508,7 +18520,7 @@
         <v>685</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D306" s="23" t="s">
         <v>1461</v>
@@ -18532,7 +18544,7 @@
         <v>687</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D307" s="23" t="s">
         <v>1461</v>
@@ -18556,7 +18568,7 @@
         <v>689</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D308" s="23" t="s">
         <v>1461</v>
@@ -18580,7 +18592,7 @@
         <v>691</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D309" s="23" t="s">
         <v>1461</v>
@@ -18604,7 +18616,7 @@
         <v>693</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D310" s="23" t="s">
         <v>1461</v>
@@ -18628,7 +18640,7 @@
         <v>695</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D311" s="23" t="s">
         <v>1461</v>
@@ -18652,7 +18664,7 @@
         <v>697</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D312" s="23" t="s">
         <v>1461</v>
@@ -18676,7 +18688,7 @@
         <v>699</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D313" s="23" t="s">
         <v>1461</v>
@@ -18700,7 +18712,7 @@
         <v>701</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D314" s="23" t="s">
         <v>1461</v>
@@ -18724,7 +18736,7 @@
         <v>703</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D315" s="23" t="s">
         <v>1461</v>
@@ -18748,7 +18760,7 @@
         <v>705</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D316" s="23" t="s">
         <v>1461</v>
@@ -18772,7 +18784,7 @@
         <v>706</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D317" s="23" t="s">
         <v>1461</v>
@@ -18796,7 +18808,7 @@
         <v>707</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D318" s="23" t="s">
         <v>1461</v>
@@ -18820,7 +18832,7 @@
         <v>709</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D319" s="23" t="s">
         <v>1461</v>
@@ -18844,7 +18856,7 @@
         <v>711</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D320" s="23" t="s">
         <v>1461</v>
@@ -18868,7 +18880,7 @@
         <v>713</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D321" s="23" t="s">
         <v>1461</v>
@@ -18892,7 +18904,7 @@
         <v>715</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D322" s="23" t="s">
         <v>1461</v>
@@ -18916,7 +18928,7 @@
         <v>717</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D323" s="23" t="s">
         <v>1461</v>
@@ -18940,7 +18952,7 @@
         <v>719</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D324" s="23" t="s">
         <v>1461</v>
@@ -18964,7 +18976,7 @@
         <v>721</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D325" s="23" t="s">
         <v>1461</v>
@@ -18988,7 +19000,7 @@
         <v>723</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D326" s="23" t="s">
         <v>1461</v>
@@ -19012,7 +19024,7 @@
         <v>725</v>
       </c>
       <c r="C327" s="23" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D327" s="23" t="s">
         <v>1461</v>
@@ -19036,7 +19048,7 @@
         <v>726</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D328" s="23" t="s">
         <v>1461</v>
@@ -19060,7 +19072,7 @@
         <v>728</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D329" s="23" t="s">
         <v>1461</v>
@@ -19084,7 +19096,7 @@
         <v>730</v>
       </c>
       <c r="C330" s="23" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D330" s="23" t="s">
         <v>1461</v>
@@ -19108,7 +19120,7 @@
         <v>732</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D331" s="23" t="s">
         <v>1461</v>
@@ -19132,7 +19144,7 @@
         <v>734</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D332" s="23" t="s">
         <v>1461</v>
@@ -19156,7 +19168,7 @@
         <v>736</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D333" s="23" t="s">
         <v>1461</v>
@@ -19180,7 +19192,7 @@
         <v>738</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D334" s="23" t="s">
         <v>1461</v>
@@ -19204,7 +19216,7 @@
         <v>740</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D335" s="23" t="s">
         <v>1461</v>
@@ -19228,7 +19240,7 @@
         <v>742</v>
       </c>
       <c r="C336" s="23" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D336" s="23" t="s">
         <v>1461</v>
@@ -19252,7 +19264,7 @@
         <v>744</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D337" s="23" t="s">
         <v>1461</v>
@@ -19276,7 +19288,7 @@
         <v>746</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D338" s="23" t="s">
         <v>1461</v>
@@ -19300,7 +19312,7 @@
         <v>748</v>
       </c>
       <c r="C339" s="23" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D339" s="23" t="s">
         <v>1461</v>
@@ -19324,7 +19336,7 @@
         <v>750</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D340" s="23" t="s">
         <v>1461</v>
@@ -19348,7 +19360,7 @@
         <v>752</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D341" s="23" t="s">
         <v>1461</v>
@@ -19372,7 +19384,7 @@
         <v>754</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D342" s="23" t="s">
         <v>1461</v>
@@ -19396,7 +19408,7 @@
         <v>756</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D343" s="23" t="s">
         <v>1461</v>
@@ -19420,7 +19432,7 @@
         <v>758</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D344" s="23" t="s">
         <v>1461</v>
@@ -19444,7 +19456,7 @@
         <v>760</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D345" s="23" t="s">
         <v>1461</v>
@@ -19468,7 +19480,7 @@
         <v>762</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D346" s="23" t="s">
         <v>1461</v>
@@ -19492,7 +19504,7 @@
         <v>764</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D347" s="23" t="s">
         <v>1461</v>
@@ -19516,7 +19528,7 @@
         <v>766</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D348" s="23" t="s">
         <v>1461</v>
@@ -19540,7 +19552,7 @@
         <v>768</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D349" s="23" t="s">
         <v>1461</v>
@@ -19564,7 +19576,7 @@
         <v>770</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D350" s="23" t="s">
         <v>1461</v>
@@ -19585,10 +19597,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="29" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D351" s="23" t="s">
         <v>1461</v>
@@ -19610,7 +19622,7 @@
         <v>772</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D352" s="23" t="s">
         <v>1461</v>
@@ -19634,7 +19646,7 @@
         <v>774</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D353" s="23" t="s">
         <v>1461</v>
@@ -19658,7 +19670,7 @@
         <v>776</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D354" s="23" t="s">
         <v>1461</v>
@@ -19682,7 +19694,7 @@
         <v>778</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D355" s="23" t="s">
         <v>1461</v>
@@ -19706,7 +19718,7 @@
         <v>780</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D356" s="23" t="s">
         <v>1461</v>
@@ -19730,7 +19742,7 @@
         <v>782</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D357" s="23" t="s">
         <v>1461</v>
@@ -19754,7 +19766,7 @@
         <v>784</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D358" s="23" t="s">
         <v>1461</v>
@@ -19778,7 +19790,7 @@
         <v>786</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D359" s="23" t="s">
         <v>1461</v>
@@ -19802,7 +19814,7 @@
         <v>788</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D360" s="23" t="s">
         <v>1461</v>
@@ -19826,7 +19838,7 @@
         <v>790</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D361" s="23" t="s">
         <v>1461</v>
@@ -19850,7 +19862,7 @@
         <v>792</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D362" s="23" t="s">
         <v>1461</v>
@@ -19874,7 +19886,7 @@
         <v>794</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D363" s="23" t="s">
         <v>1461</v>
@@ -19898,7 +19910,7 @@
         <v>796</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D364" s="23" t="s">
         <v>1461</v>
@@ -19922,7 +19934,7 @@
         <v>798</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D365" s="23" t="s">
         <v>1461</v>
@@ -19946,7 +19958,7 @@
         <v>800</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D366" s="23" t="s">
         <v>1461</v>
@@ -19970,7 +19982,7 @@
         <v>802</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D367" s="23" t="s">
         <v>1461</v>
@@ -19994,7 +20006,7 @@
         <v>804</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D368" s="23" t="s">
         <v>1461</v>
@@ -20018,7 +20030,7 @@
         <v>806</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D369" s="23" t="s">
         <v>1461</v>
@@ -20042,7 +20054,7 @@
         <v>808</v>
       </c>
       <c r="C370" s="23" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D370" s="23" t="s">
         <v>1461</v>
@@ -20066,7 +20078,7 @@
         <v>810</v>
       </c>
       <c r="C371" s="23" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D371" s="23" t="s">
         <v>1461</v>
@@ -20090,7 +20102,7 @@
         <v>812</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D372" s="23" t="s">
         <v>1461</v>
@@ -20114,7 +20126,7 @@
         <v>814</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D373" s="23" t="s">
         <v>1461</v>
@@ -20138,7 +20150,7 @@
         <v>816</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D374" s="23" t="s">
         <v>1461</v>
@@ -20162,7 +20174,7 @@
         <v>818</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D375" s="23" t="s">
         <v>1461</v>
@@ -20186,7 +20198,7 @@
         <v>820</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D376" s="23" t="s">
         <v>1461</v>
@@ -20210,7 +20222,7 @@
         <v>822</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D377" s="23" t="s">
         <v>1461</v>
@@ -20234,7 +20246,7 @@
         <v>824</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D378" s="23" t="s">
         <v>1461</v>
@@ -20258,7 +20270,7 @@
         <v>826</v>
       </c>
       <c r="C379" s="23" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D379" s="23" t="s">
         <v>1461</v>
@@ -20282,7 +20294,7 @@
         <v>828</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D380" s="23" t="s">
         <v>1461</v>
@@ -20306,7 +20318,7 @@
         <v>830</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D381" s="23" t="s">
         <v>1461</v>
@@ -20330,7 +20342,7 @@
         <v>832</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D382" s="23" t="s">
         <v>1461</v>
@@ -20354,7 +20366,7 @@
         <v>834</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D383" s="23" t="s">
         <v>1461</v>
@@ -20378,7 +20390,7 @@
         <v>836</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D384" s="23" t="s">
         <v>1461</v>
@@ -20402,7 +20414,7 @@
         <v>838</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D385" s="23" t="s">
         <v>1461</v>
@@ -20426,7 +20438,7 @@
         <v>840</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D386" s="23" t="s">
         <v>1461</v>
@@ -20450,7 +20462,7 @@
         <v>842</v>
       </c>
       <c r="C387" s="23" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D387" s="23" t="s">
         <v>1461</v>
@@ -20474,7 +20486,7 @@
         <v>844</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D388" s="23" t="s">
         <v>1461</v>
@@ -20498,7 +20510,7 @@
         <v>846</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D389" s="23" t="s">
         <v>1461</v>
@@ -20522,7 +20534,7 @@
         <v>848</v>
       </c>
       <c r="C390" s="23" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D390" s="23" t="s">
         <v>1461</v>
@@ -20546,7 +20558,7 @@
         <v>850</v>
       </c>
       <c r="C391" s="23" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D391" s="23" t="s">
         <v>1461</v>
@@ -20570,7 +20582,7 @@
         <v>852</v>
       </c>
       <c r="C392" s="23" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D392" s="23" t="s">
         <v>1461</v>
@@ -20594,7 +20606,7 @@
         <v>854</v>
       </c>
       <c r="C393" s="23" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D393" s="23" t="s">
         <v>1461</v>
@@ -20618,7 +20630,7 @@
         <v>856</v>
       </c>
       <c r="C394" s="23" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D394" s="23" t="s">
         <v>1461</v>
@@ -20642,7 +20654,7 @@
         <v>858</v>
       </c>
       <c r="C395" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D395" s="23" t="s">
         <v>1461</v>
@@ -20666,7 +20678,7 @@
         <v>860</v>
       </c>
       <c r="C396" s="23" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D396" s="23" t="s">
         <v>1461</v>
@@ -20690,7 +20702,7 @@
         <v>862</v>
       </c>
       <c r="C397" s="23" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D397" s="23" t="s">
         <v>1461</v>
@@ -20714,7 +20726,7 @@
         <v>864</v>
       </c>
       <c r="C398" s="23" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D398" s="23" t="s">
         <v>1461</v>
@@ -20738,7 +20750,7 @@
         <v>866</v>
       </c>
       <c r="C399" s="23" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D399" s="23" t="s">
         <v>1461</v>
@@ -20762,7 +20774,7 @@
         <v>868</v>
       </c>
       <c r="C400" s="23" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D400" s="23" t="s">
         <v>1461</v>
@@ -20786,7 +20798,7 @@
         <v>870</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D401" s="23" t="s">
         <v>1461</v>
@@ -20810,7 +20822,7 @@
         <v>871</v>
       </c>
       <c r="C402" s="23" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D402" s="23" t="s">
         <v>1461</v>
@@ -20834,7 +20846,7 @@
         <v>873</v>
       </c>
       <c r="C403" s="23" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D403" s="23" t="s">
         <v>1461</v>
@@ -20858,7 +20870,7 @@
         <v>875</v>
       </c>
       <c r="C404" s="23" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D404" s="23" t="s">
         <v>1461</v>
@@ -20882,7 +20894,7 @@
         <v>877</v>
       </c>
       <c r="C405" s="23" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D405" s="23" t="s">
         <v>1461</v>
@@ -20906,7 +20918,7 @@
         <v>879</v>
       </c>
       <c r="C406" s="23" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D406" s="23" t="s">
         <v>1461</v>
@@ -20930,7 +20942,7 @@
         <v>881</v>
       </c>
       <c r="C407" s="23" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D407" s="23" t="s">
         <v>1461</v>
@@ -20954,7 +20966,7 @@
         <v>883</v>
       </c>
       <c r="C408" s="23" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D408" s="23" t="s">
         <v>1461</v>
@@ -20978,7 +20990,7 @@
         <v>885</v>
       </c>
       <c r="C409" s="23" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D409" s="23" t="s">
         <v>1461</v>
@@ -21002,7 +21014,7 @@
         <v>887</v>
       </c>
       <c r="C410" s="23" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D410" s="23" t="s">
         <v>1461</v>
@@ -21026,7 +21038,7 @@
         <v>889</v>
       </c>
       <c r="C411" s="23" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D411" s="23" t="s">
         <v>1461</v>
@@ -21050,7 +21062,7 @@
         <v>891</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D412" s="23" t="s">
         <v>1461</v>
@@ -21074,7 +21086,7 @@
         <v>893</v>
       </c>
       <c r="C413" s="23" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D413" s="23" t="s">
         <v>1461</v>
@@ -21098,7 +21110,7 @@
         <v>895</v>
       </c>
       <c r="C414" s="23" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D414" s="23" t="s">
         <v>1461</v>
@@ -21122,7 +21134,7 @@
         <v>897</v>
       </c>
       <c r="C415" s="23" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D415" s="23" t="s">
         <v>1461</v>
@@ -21146,7 +21158,7 @@
         <v>899</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D416" s="23" t="s">
         <v>1461</v>
@@ -21170,7 +21182,7 @@
         <v>901</v>
       </c>
       <c r="C417" s="23" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D417" s="23" t="s">
         <v>1461</v>
@@ -21194,7 +21206,7 @@
         <v>903</v>
       </c>
       <c r="C418" s="23" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D418" s="23" t="s">
         <v>1461</v>
@@ -21218,7 +21230,7 @@
         <v>905</v>
       </c>
       <c r="C419" s="23" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D419" s="23" t="s">
         <v>1461</v>
@@ -21242,7 +21254,7 @@
         <v>907</v>
       </c>
       <c r="C420" s="23" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D420" s="23" t="s">
         <v>1461</v>
@@ -21266,7 +21278,7 @@
         <v>909</v>
       </c>
       <c r="C421" s="23" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D421" s="23" t="s">
         <v>1461</v>
@@ -21290,7 +21302,7 @@
         <v>911</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D422" s="23" t="s">
         <v>1461</v>
@@ -21314,7 +21326,7 @@
         <v>913</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D423" s="23" t="s">
         <v>1461</v>
@@ -21338,7 +21350,7 @@
         <v>915</v>
       </c>
       <c r="C424" s="23" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D424" s="23" t="s">
         <v>1461</v>
@@ -21362,7 +21374,7 @@
         <v>917</v>
       </c>
       <c r="C425" s="23" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D425" s="23" t="s">
         <v>1461</v>
@@ -21386,7 +21398,7 @@
         <v>919</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D426" s="23" t="s">
         <v>1461</v>
@@ -21410,7 +21422,7 @@
         <v>921</v>
       </c>
       <c r="C427" s="23" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D427" s="23" t="s">
         <v>1461</v>
@@ -21434,7 +21446,7 @@
         <v>923</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D428" s="23" t="s">
         <v>1461</v>
@@ -21458,7 +21470,7 @@
         <v>925</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D429" s="23" t="s">
         <v>1461</v>
@@ -21482,7 +21494,7 @@
         <v>927</v>
       </c>
       <c r="C430" s="23" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D430" s="23" t="s">
         <v>1461</v>
@@ -21506,7 +21518,7 @@
         <v>929</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D431" s="23" t="s">
         <v>1461</v>
@@ -21530,7 +21542,7 @@
         <v>931</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D432" s="23" t="s">
         <v>1461</v>
@@ -21554,7 +21566,7 @@
         <v>933</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D433" s="23" t="s">
         <v>1461</v>
@@ -21578,7 +21590,7 @@
         <v>935</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D434" s="23" t="s">
         <v>1461</v>
@@ -21602,7 +21614,7 @@
         <v>937</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D435" s="23" t="s">
         <v>1461</v>
@@ -21626,7 +21638,7 @@
         <v>939</v>
       </c>
       <c r="C436" s="23" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D436" s="23" t="s">
         <v>1461</v>
@@ -21650,7 +21662,7 @@
         <v>941</v>
       </c>
       <c r="C437" s="23" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D437" s="23" t="s">
         <v>1461</v>
@@ -21674,7 +21686,7 @@
         <v>943</v>
       </c>
       <c r="C438" s="23" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D438" s="23" t="s">
         <v>1461</v>
@@ -21698,7 +21710,7 @@
         <v>945</v>
       </c>
       <c r="C439" s="23" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D439" s="23" t="s">
         <v>1461</v>
@@ -21722,7 +21734,7 @@
         <v>947</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D440" s="23" t="s">
         <v>1461</v>
@@ -21746,7 +21758,7 @@
         <v>949</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D441" s="23" t="s">
         <v>1461</v>
@@ -21770,7 +21782,7 @@
         <v>951</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D442" s="23" t="s">
         <v>1461</v>
@@ -21794,7 +21806,7 @@
         <v>953</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D443" s="23" t="s">
         <v>1461</v>
@@ -21818,7 +21830,7 @@
         <v>955</v>
       </c>
       <c r="C444" s="23" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D444" s="23" t="s">
         <v>1461</v>
@@ -21842,7 +21854,7 @@
         <v>957</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D445" s="23" t="s">
         <v>1461</v>
@@ -21866,7 +21878,7 @@
         <v>959</v>
       </c>
       <c r="C446" s="23" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D446" s="23" t="s">
         <v>1461</v>
@@ -21890,7 +21902,7 @@
         <v>961</v>
       </c>
       <c r="C447" s="23" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D447" s="23" t="s">
         <v>1461</v>
@@ -21914,7 +21926,7 @@
         <v>963</v>
       </c>
       <c r="C448" s="23" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D448" s="23" t="s">
         <v>1461</v>
@@ -21938,7 +21950,7 @@
         <v>965</v>
       </c>
       <c r="C449" s="23" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D449" s="23" t="s">
         <v>1461</v>
@@ -21962,7 +21974,7 @@
         <v>967</v>
       </c>
       <c r="C450" s="23" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D450" s="23" t="s">
         <v>1461</v>
@@ -21986,7 +21998,7 @@
         <v>969</v>
       </c>
       <c r="C451" s="23" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D451" s="23" t="s">
         <v>1461</v>
@@ -22010,7 +22022,7 @@
         <v>971</v>
       </c>
       <c r="C452" s="23" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D452" s="23" t="s">
         <v>1461</v>
@@ -22034,7 +22046,7 @@
         <v>973</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D453" s="23" t="s">
         <v>1461</v>
@@ -22058,7 +22070,7 @@
         <v>975</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D454" s="23" t="s">
         <v>1461</v>
@@ -22082,7 +22094,7 @@
         <v>977</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D455" s="23" t="s">
         <v>1461</v>
@@ -22106,7 +22118,7 @@
         <v>979</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D456" s="23" t="s">
         <v>1461</v>
@@ -22130,7 +22142,7 @@
         <v>981</v>
       </c>
       <c r="C457" s="23" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D457" s="23" t="s">
         <v>1461</v>
@@ -22154,7 +22166,7 @@
         <v>983</v>
       </c>
       <c r="C458" s="23" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D458" s="23" t="s">
         <v>1461</v>
@@ -22178,7 +22190,7 @@
         <v>985</v>
       </c>
       <c r="C459" s="23" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D459" s="23" t="s">
         <v>1461</v>
@@ -22202,7 +22214,7 @@
         <v>987</v>
       </c>
       <c r="C460" s="23" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D460" s="23" t="s">
         <v>1461</v>
@@ -22226,7 +22238,7 @@
         <v>989</v>
       </c>
       <c r="C461" s="23" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D461" s="23" t="s">
         <v>1461</v>
@@ -22250,7 +22262,7 @@
         <v>991</v>
       </c>
       <c r="C462" s="23" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D462" s="23" t="s">
         <v>1461</v>
@@ -22274,7 +22286,7 @@
         <v>993</v>
       </c>
       <c r="C463" s="23" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D463" s="23" t="s">
         <v>1461</v>
@@ -22298,7 +22310,7 @@
         <v>995</v>
       </c>
       <c r="C464" s="23" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D464" s="23" t="s">
         <v>1461</v>
@@ -22322,7 +22334,7 @@
         <v>997</v>
       </c>
       <c r="C465" s="23" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D465" s="23" t="s">
         <v>1461</v>
@@ -22346,7 +22358,7 @@
         <v>999</v>
       </c>
       <c r="C466" s="23" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D466" s="23" t="s">
         <v>1461</v>
@@ -22370,7 +22382,7 @@
         <v>1001</v>
       </c>
       <c r="C467" s="23" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D467" s="23" t="s">
         <v>1461</v>
@@ -22394,7 +22406,7 @@
         <v>1003</v>
       </c>
       <c r="C468" s="23" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D468" s="23" t="s">
         <v>1461</v>
@@ -22418,7 +22430,7 @@
         <v>1005</v>
       </c>
       <c r="C469" s="23" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D469" s="23" t="s">
         <v>1461</v>
@@ -22442,7 +22454,7 @@
         <v>1007</v>
       </c>
       <c r="C470" s="23" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D470" s="23" t="s">
         <v>1461</v>
@@ -22466,7 +22478,7 @@
         <v>1009</v>
       </c>
       <c r="C471" s="23" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D471" s="23" t="s">
         <v>1461</v>
@@ -22490,7 +22502,7 @@
         <v>1011</v>
       </c>
       <c r="C472" s="23" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D472" s="23" t="s">
         <v>1461</v>
@@ -22514,7 +22526,7 @@
         <v>1013</v>
       </c>
       <c r="C473" s="23" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D473" s="23" t="s">
         <v>1461</v>
@@ -22538,7 +22550,7 @@
         <v>1015</v>
       </c>
       <c r="C474" s="23" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D474" s="23" t="s">
         <v>1461</v>
@@ -22562,7 +22574,7 @@
         <v>1017</v>
       </c>
       <c r="C475" s="23" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D475" s="23" t="s">
         <v>1461</v>
@@ -22586,7 +22598,7 @@
         <v>1019</v>
       </c>
       <c r="C476" s="23" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D476" s="23" t="s">
         <v>1461</v>
@@ -22610,7 +22622,7 @@
         <v>1021</v>
       </c>
       <c r="C477" s="23" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D477" s="23" t="s">
         <v>1461</v>
@@ -22634,7 +22646,7 @@
         <v>1023</v>
       </c>
       <c r="C478" s="23" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D478" s="23" t="s">
         <v>1461</v>
@@ -22658,7 +22670,7 @@
         <v>1025</v>
       </c>
       <c r="C479" s="23" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D479" s="23" t="s">
         <v>1461</v>
@@ -22682,7 +22694,7 @@
         <v>1027</v>
       </c>
       <c r="C480" s="23" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D480" s="23" t="s">
         <v>1461</v>
@@ -22706,7 +22718,7 @@
         <v>1029</v>
       </c>
       <c r="C481" s="23" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D481" s="23" t="s">
         <v>1461</v>
@@ -22730,7 +22742,7 @@
         <v>1031</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D482" s="23" t="s">
         <v>1461</v>
@@ -22754,7 +22766,7 @@
         <v>1033</v>
       </c>
       <c r="C483" s="23" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D483" s="23" t="s">
         <v>1461</v>
@@ -22778,7 +22790,7 @@
         <v>1035</v>
       </c>
       <c r="C484" s="23" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D484" s="23" t="s">
         <v>1461</v>
@@ -22802,7 +22814,7 @@
         <v>1037</v>
       </c>
       <c r="C485" s="23" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D485" s="23" t="s">
         <v>1461</v>
@@ -22826,7 +22838,7 @@
         <v>1039</v>
       </c>
       <c r="C486" s="23" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D486" s="23" t="s">
         <v>1461</v>
@@ -22850,7 +22862,7 @@
         <v>1041</v>
       </c>
       <c r="C487" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D487" s="23" t="s">
         <v>1461</v>
@@ -22874,7 +22886,7 @@
         <v>1043</v>
       </c>
       <c r="C488" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="D488" s="23" t="s">
         <v>1461</v>
@@ -22898,7 +22910,7 @@
         <v>1045</v>
       </c>
       <c r="C489" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D489" s="23" t="s">
         <v>1461</v>
@@ -22922,7 +22934,7 @@
         <v>1047</v>
       </c>
       <c r="C490" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="D490" s="23" t="s">
         <v>1461</v>
@@ -22946,7 +22958,7 @@
         <v>1049</v>
       </c>
       <c r="C491" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D491" s="23" t="s">
         <v>1461</v>
@@ -22970,7 +22982,7 @@
         <v>1051</v>
       </c>
       <c r="C492" s="23" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D492" s="23" t="s">
         <v>1461</v>
@@ -22994,7 +23006,7 @@
         <v>1053</v>
       </c>
       <c r="C493" s="23" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D493" s="23" t="s">
         <v>1461</v>
@@ -23018,7 +23030,7 @@
         <v>1055</v>
       </c>
       <c r="C494" s="23" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="D494" s="23" t="s">
         <v>1461</v>
@@ -23042,7 +23054,7 @@
         <v>1057</v>
       </c>
       <c r="C495" s="23" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D495" s="23" t="s">
         <v>1461</v>
@@ -23066,7 +23078,7 @@
         <v>1059</v>
       </c>
       <c r="C496" s="23" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D496" s="23" t="s">
         <v>1461</v>
@@ -23090,7 +23102,7 @@
         <v>1061</v>
       </c>
       <c r="C497" s="23" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D497" s="23" t="s">
         <v>1461</v>
@@ -23114,7 +23126,7 @@
         <v>1063</v>
       </c>
       <c r="C498" s="23" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D498" s="23" t="s">
         <v>1461</v>
@@ -23138,7 +23150,7 @@
         <v>1065</v>
       </c>
       <c r="C499" s="23" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D499" s="23" t="s">
         <v>1461</v>
@@ -23162,7 +23174,7 @@
         <v>1067</v>
       </c>
       <c r="C500" s="23" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D500" s="23" t="s">
         <v>1461</v>
@@ -23186,7 +23198,7 @@
         <v>1069</v>
       </c>
       <c r="C501" s="23" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D501" s="23" t="s">
         <v>1461</v>
@@ -23210,7 +23222,7 @@
         <v>1071</v>
       </c>
       <c r="C502" s="23" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D502" s="23" t="s">
         <v>1461</v>
@@ -23234,7 +23246,7 @@
         <v>1073</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D503" s="23" t="s">
         <v>1461</v>
@@ -23258,7 +23270,7 @@
         <v>1075</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D504" s="23" t="s">
         <v>1461</v>
@@ -23282,7 +23294,7 @@
         <v>1077</v>
       </c>
       <c r="C505" s="23" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D505" s="23" t="s">
         <v>1461</v>
@@ -23306,7 +23318,7 @@
         <v>1079</v>
       </c>
       <c r="C506" s="23" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D506" s="23" t="s">
         <v>1461</v>
@@ -23330,7 +23342,7 @@
         <v>1081</v>
       </c>
       <c r="C507" s="23" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D507" s="23" t="s">
         <v>1461</v>
@@ -23354,7 +23366,7 @@
         <v>1083</v>
       </c>
       <c r="C508" s="23" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D508" s="23" t="s">
         <v>1461</v>
@@ -23378,7 +23390,7 @@
         <v>1085</v>
       </c>
       <c r="C509" s="23" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D509" s="23" t="s">
         <v>1461</v>
@@ -23402,7 +23414,7 @@
         <v>1087</v>
       </c>
       <c r="C510" s="23" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D510" s="23" t="s">
         <v>1461</v>
@@ -23426,7 +23438,7 @@
         <v>1089</v>
       </c>
       <c r="C511" s="23" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D511" s="23" t="s">
         <v>1461</v>
@@ -23450,7 +23462,7 @@
         <v>1091</v>
       </c>
       <c r="C512" s="23" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D512" s="23" t="s">
         <v>1461</v>
@@ -23474,7 +23486,7 @@
         <v>1093</v>
       </c>
       <c r="C513" s="23" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D513" s="23" t="s">
         <v>1461</v>
@@ -23498,7 +23510,7 @@
         <v>1095</v>
       </c>
       <c r="C514" s="23" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D514" s="23" t="s">
         <v>1461</v>
@@ -23522,7 +23534,7 @@
         <v>1097</v>
       </c>
       <c r="C515" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D515" s="23" t="s">
         <v>1461</v>
@@ -23546,7 +23558,7 @@
         <v>1099</v>
       </c>
       <c r="C516" s="23" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D516" s="23" t="s">
         <v>1461</v>
@@ -23570,7 +23582,7 @@
         <v>1101</v>
       </c>
       <c r="C517" s="23" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D517" s="23" t="s">
         <v>1461</v>
@@ -23594,7 +23606,7 @@
         <v>1103</v>
       </c>
       <c r="C518" s="23" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D518" s="23" t="s">
         <v>1461</v>
@@ -23618,7 +23630,7 @@
         <v>1105</v>
       </c>
       <c r="C519" s="23" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D519" s="23" t="s">
         <v>1461</v>
@@ -23642,7 +23654,7 @@
         <v>1107</v>
       </c>
       <c r="C520" s="23" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D520" s="23" t="s">
         <v>1461</v>
@@ -23666,7 +23678,7 @@
         <v>1109</v>
       </c>
       <c r="C521" s="23" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D521" s="23" t="s">
         <v>1461</v>
@@ -23690,7 +23702,7 @@
         <v>1111</v>
       </c>
       <c r="C522" s="23" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D522" s="23" t="s">
         <v>1461</v>
@@ -23714,7 +23726,7 @@
         <v>1113</v>
       </c>
       <c r="C523" s="23" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D523" s="23" t="s">
         <v>1461</v>
@@ -23738,7 +23750,7 @@
         <v>1115</v>
       </c>
       <c r="C524" s="23" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="D524" s="23" t="s">
         <v>1461</v>
@@ -23762,7 +23774,7 @@
         <v>1117</v>
       </c>
       <c r="C525" s="23" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="D525" s="23" t="s">
         <v>1461</v>
@@ -23786,7 +23798,7 @@
         <v>1119</v>
       </c>
       <c r="C526" s="23" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D526" s="23" t="s">
         <v>1461</v>
@@ -23810,7 +23822,7 @@
         <v>1121</v>
       </c>
       <c r="C527" s="23" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D527" s="23" t="s">
         <v>1461</v>
@@ -23834,7 +23846,7 @@
         <v>1123</v>
       </c>
       <c r="C528" s="23" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D528" s="23" t="s">
         <v>1461</v>
@@ -23858,7 +23870,7 @@
         <v>1125</v>
       </c>
       <c r="C529" s="23" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D529" s="23" t="s">
         <v>1461</v>
@@ -23882,7 +23894,7 @@
         <v>1127</v>
       </c>
       <c r="C530" s="23" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D530" s="23" t="s">
         <v>1461</v>
@@ -23906,7 +23918,7 @@
         <v>1129</v>
       </c>
       <c r="C531" s="23" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D531" s="23" t="s">
         <v>1461</v>
@@ -23930,7 +23942,7 @@
         <v>1131</v>
       </c>
       <c r="C532" s="23" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D532" s="23" t="s">
         <v>1461</v>
@@ -23954,7 +23966,7 @@
         <v>1133</v>
       </c>
       <c r="C533" s="23" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D533" s="23" t="s">
         <v>1461</v>
@@ -23978,7 +23990,7 @@
         <v>1135</v>
       </c>
       <c r="C534" s="23" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D534" s="23" t="s">
         <v>1461</v>
@@ -24002,7 +24014,7 @@
         <v>1137</v>
       </c>
       <c r="C535" s="23" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D535" s="23" t="s">
         <v>1461</v>
@@ -24026,7 +24038,7 @@
         <v>1139</v>
       </c>
       <c r="C536" s="23" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D536" s="23" t="s">
         <v>1461</v>
@@ -24050,7 +24062,7 @@
         <v>1141</v>
       </c>
       <c r="C537" s="23" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D537" s="23" t="s">
         <v>1461</v>
@@ -24074,7 +24086,7 @@
         <v>1143</v>
       </c>
       <c r="C538" s="23" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D538" s="23" t="s">
         <v>1461</v>
@@ -24098,7 +24110,7 @@
         <v>1145</v>
       </c>
       <c r="C539" s="23" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D539" s="23" t="s">
         <v>1461</v>
@@ -24122,7 +24134,7 @@
         <v>1147</v>
       </c>
       <c r="C540" s="23" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D540" s="23" t="s">
         <v>1461</v>
@@ -24146,7 +24158,7 @@
         <v>1149</v>
       </c>
       <c r="C541" s="23" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D541" s="23" t="s">
         <v>1461</v>
@@ -24170,7 +24182,7 @@
         <v>1151</v>
       </c>
       <c r="C542" s="23" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D542" s="23" t="s">
         <v>1461</v>
@@ -24194,7 +24206,7 @@
         <v>1153</v>
       </c>
       <c r="C543" s="23" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D543" s="23" t="s">
         <v>1461</v>
@@ -24218,7 +24230,7 @@
         <v>1155</v>
       </c>
       <c r="C544" s="23" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D544" s="23" t="s">
         <v>1461</v>
@@ -24242,7 +24254,7 @@
         <v>1157</v>
       </c>
       <c r="C545" s="23" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D545" s="23" t="s">
         <v>1461</v>
@@ -24266,7 +24278,7 @@
         <v>1159</v>
       </c>
       <c r="C546" s="23" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D546" s="23" t="s">
         <v>1461</v>
@@ -24290,7 +24302,7 @@
         <v>1161</v>
       </c>
       <c r="C547" s="23" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D547" s="23" t="s">
         <v>1461</v>
@@ -24314,7 +24326,7 @@
         <v>1163</v>
       </c>
       <c r="C548" s="23" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D548" s="23" t="s">
         <v>1461</v>
@@ -24338,7 +24350,7 @@
         <v>1165</v>
       </c>
       <c r="C549" s="23" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D549" s="23" t="s">
         <v>1461</v>
@@ -24362,7 +24374,7 @@
         <v>1167</v>
       </c>
       <c r="C550" s="23" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D550" s="23" t="s">
         <v>1461</v>
@@ -24386,7 +24398,7 @@
         <v>1169</v>
       </c>
       <c r="C551" s="23" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D551" s="23" t="s">
         <v>1461</v>
@@ -24410,7 +24422,7 @@
         <v>1171</v>
       </c>
       <c r="C552" s="23" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D552" s="23" t="s">
         <v>1461</v>
@@ -24434,7 +24446,7 @@
         <v>1173</v>
       </c>
       <c r="C553" s="23" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D553" s="23" t="s">
         <v>1461</v>
@@ -24458,7 +24470,7 @@
         <v>1175</v>
       </c>
       <c r="C554" s="23" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D554" s="23" t="s">
         <v>1461</v>
@@ -24482,7 +24494,7 @@
         <v>1177</v>
       </c>
       <c r="C555" s="23" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D555" s="23" t="s">
         <v>1461</v>
@@ -24506,7 +24518,7 @@
         <v>1179</v>
       </c>
       <c r="C556" s="23" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D556" s="23" t="s">
         <v>1461</v>
@@ -24530,7 +24542,7 @@
         <v>1181</v>
       </c>
       <c r="C557" s="23" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D557" s="23" t="s">
         <v>1461</v>
@@ -24554,7 +24566,7 @@
         <v>1183</v>
       </c>
       <c r="C558" s="23" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D558" s="23" t="s">
         <v>1461</v>
@@ -24578,7 +24590,7 @@
         <v>1185</v>
       </c>
       <c r="C559" s="23" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D559" s="23" t="s">
         <v>1461</v>
@@ -24602,7 +24614,7 @@
         <v>1187</v>
       </c>
       <c r="C560" s="23" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D560" s="23" t="s">
         <v>1461</v>
@@ -24626,7 +24638,7 @@
         <v>1189</v>
       </c>
       <c r="C561" s="23" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D561" s="23" t="s">
         <v>1461</v>
@@ -24650,7 +24662,7 @@
         <v>1191</v>
       </c>
       <c r="C562" s="23" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D562" s="23" t="s">
         <v>1461</v>
@@ -24674,7 +24686,7 @@
         <v>1193</v>
       </c>
       <c r="C563" s="23" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D563" s="23" t="s">
         <v>1461</v>
@@ -24698,7 +24710,7 @@
         <v>1195</v>
       </c>
       <c r="C564" s="23" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D564" s="23" t="s">
         <v>1461</v>
@@ -24722,7 +24734,7 @@
         <v>1197</v>
       </c>
       <c r="C565" s="23" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D565" s="23" t="s">
         <v>1461</v>
@@ -24746,7 +24758,7 @@
         <v>1199</v>
       </c>
       <c r="C566" s="23" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D566" s="23" t="s">
         <v>1461</v>
@@ -24770,7 +24782,7 @@
         <v>1201</v>
       </c>
       <c r="C567" s="23" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D567" s="23" t="s">
         <v>1461</v>
@@ -24794,7 +24806,7 @@
         <v>78</v>
       </c>
       <c r="C568" s="23" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D568" s="23" t="s">
         <v>1461</v>
@@ -24818,7 +24830,7 @@
         <v>79</v>
       </c>
       <c r="C569" s="23" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D569" s="23" t="s">
         <v>1461</v>
@@ -24842,7 +24854,7 @@
         <v>80</v>
       </c>
       <c r="C570" s="23" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D570" s="23" t="s">
         <v>1461</v>
@@ -24866,7 +24878,7 @@
         <v>81</v>
       </c>
       <c r="C571" s="23" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D571" s="23" t="s">
         <v>1461</v>
@@ -24890,7 +24902,7 @@
         <v>82</v>
       </c>
       <c r="C572" s="23" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D572" s="23" t="s">
         <v>1461</v>
@@ -24914,7 +24926,7 @@
         <v>83</v>
       </c>
       <c r="C573" s="23" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="D573" s="23" t="s">
         <v>1461</v>
@@ -24938,7 +24950,7 @@
         <v>84</v>
       </c>
       <c r="C574" s="23" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="D574" s="23" t="s">
         <v>1461</v>
@@ -24962,7 +24974,7 @@
         <v>85</v>
       </c>
       <c r="C575" s="23" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D575" s="23" t="s">
         <v>1461</v>
@@ -24986,7 +24998,7 @@
         <v>86</v>
       </c>
       <c r="C576" s="23" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D576" s="23" t="s">
         <v>1461</v>
@@ -25010,7 +25022,7 @@
         <v>87</v>
       </c>
       <c r="C577" s="23" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D577" s="23" t="s">
         <v>1461</v>
@@ -25034,7 +25046,7 @@
         <v>1213</v>
       </c>
       <c r="C578" s="23" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D578" s="23" t="s">
         <v>1461</v>
@@ -25058,7 +25070,7 @@
         <v>1215</v>
       </c>
       <c r="C579" s="23" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D579" s="23" t="s">
         <v>1461</v>
@@ -25082,7 +25094,7 @@
         <v>1217</v>
       </c>
       <c r="C580" s="23" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="D580" s="23" t="s">
         <v>1461</v>
@@ -25106,7 +25118,7 @@
         <v>1219</v>
       </c>
       <c r="C581" s="23" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="D581" s="23" t="s">
         <v>1461</v>
@@ -25130,7 +25142,7 @@
         <v>1221</v>
       </c>
       <c r="C582" s="23" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D582" s="23" t="s">
         <v>1461</v>
@@ -25154,7 +25166,7 @@
         <v>1223</v>
       </c>
       <c r="C583" s="23" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="D583" s="23" t="s">
         <v>1461</v>
@@ -25178,7 +25190,7 @@
         <v>1225</v>
       </c>
       <c r="C584" s="23" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D584" s="23" t="s">
         <v>1461</v>
@@ -25202,7 +25214,7 @@
         <v>1227</v>
       </c>
       <c r="C585" s="23" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="D585" s="23" t="s">
         <v>1461</v>
@@ -25226,7 +25238,7 @@
         <v>1229</v>
       </c>
       <c r="C586" s="23" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D586" s="23" t="s">
         <v>1461</v>
@@ -25250,7 +25262,7 @@
         <v>1231</v>
       </c>
       <c r="C587" s="23" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D587" s="23" t="s">
         <v>1461</v>
@@ -25274,7 +25286,7 @@
         <v>1233</v>
       </c>
       <c r="C588" s="23" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="D588" s="23" t="s">
         <v>1461</v>
@@ -25298,7 +25310,7 @@
         <v>1235</v>
       </c>
       <c r="C589" s="23" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D589" s="23" t="s">
         <v>1461</v>
@@ -25322,7 +25334,7 @@
         <v>1237</v>
       </c>
       <c r="C590" s="23" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D590" s="23" t="s">
         <v>1461</v>
@@ -25346,7 +25358,7 @@
         <v>1239</v>
       </c>
       <c r="C591" s="23" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D591" s="23" t="s">
         <v>1461</v>
@@ -25370,7 +25382,7 @@
         <v>1241</v>
       </c>
       <c r="C592" s="23" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="D592" s="23" t="s">
         <v>1461</v>
@@ -25394,7 +25406,7 @@
         <v>1243</v>
       </c>
       <c r="C593" s="23" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D593" s="23" t="s">
         <v>1461</v>
@@ -25418,7 +25430,7 @@
         <v>1245</v>
       </c>
       <c r="C594" s="23" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="D594" s="23" t="s">
         <v>1461</v>
@@ -25442,7 +25454,7 @@
         <v>1247</v>
       </c>
       <c r="C595" s="23" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D595" s="23" t="s">
         <v>1461</v>
@@ -25466,7 +25478,7 @@
         <v>1249</v>
       </c>
       <c r="C596" s="23" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D596" s="23" t="s">
         <v>1461</v>
@@ -25490,7 +25502,7 @@
         <v>1251</v>
       </c>
       <c r="C597" s="23" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D597" s="23" t="s">
         <v>1461</v>
@@ -25514,7 +25526,7 @@
         <v>1253</v>
       </c>
       <c r="C598" s="23" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D598" s="23" t="s">
         <v>1461</v>
@@ -25538,7 +25550,7 @@
         <v>1255</v>
       </c>
       <c r="C599" s="23" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D599" s="23" t="s">
         <v>1461</v>
@@ -25562,7 +25574,7 @@
         <v>1257</v>
       </c>
       <c r="C600" s="23" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D600" s="23" t="s">
         <v>1461</v>
@@ -25586,7 +25598,7 @@
         <v>1259</v>
       </c>
       <c r="C601" s="23" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="D601" s="23" t="s">
         <v>1461</v>
@@ -25610,7 +25622,7 @@
         <v>1261</v>
       </c>
       <c r="C602" s="23" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D602" s="23" t="s">
         <v>1461</v>
@@ -25634,7 +25646,7 @@
         <v>1263</v>
       </c>
       <c r="C603" s="23" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D603" s="23" t="s">
         <v>1461</v>
@@ -25658,7 +25670,7 @@
         <v>1265</v>
       </c>
       <c r="C604" s="23" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D604" s="23" t="s">
         <v>1461</v>
@@ -25682,7 +25694,7 @@
         <v>1267</v>
       </c>
       <c r="C605" s="23" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D605" s="23" t="s">
         <v>1461</v>
@@ -25706,7 +25718,7 @@
         <v>1269</v>
       </c>
       <c r="C606" s="23" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D606" s="23" t="s">
         <v>1461</v>
@@ -25730,7 +25742,7 @@
         <v>1271</v>
       </c>
       <c r="C607" s="23" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D607" s="23" t="s">
         <v>1461</v>
@@ -25754,7 +25766,7 @@
         <v>1273</v>
       </c>
       <c r="C608" s="23" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D608" s="23" t="s">
         <v>1461</v>
@@ -25778,7 +25790,7 @@
         <v>1275</v>
       </c>
       <c r="C609" s="23" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D609" s="23" t="s">
         <v>1461</v>
@@ -25803,10 +25815,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25818,9 +25830,10 @@
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -25845,8 +25858,11 @@
       <c r="H1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -25854,10 +25870,10 @@
         <v>1393</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1535</v>
@@ -25866,11 +25882,12 @@
         <v>2147</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -25878,10 +25895,10 @@
         <v>1394</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1536</v>
@@ -25890,11 +25907,12 @@
         <v>2148</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -25902,10 +25920,10 @@
         <v>1395</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1537</v>
@@ -25914,11 +25932,12 @@
         <v>2149</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -25926,23 +25945,24 @@
         <v>1396</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2177</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2178</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>2150</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -25950,23 +25970,24 @@
         <v>1397</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -25974,23 +25995,24 @@
         <v>1398</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>2152</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -25998,23 +26020,24 @@
         <v>1399</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>2153</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -26022,23 +26045,24 @@
         <v>1400</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>2154</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -26046,23 +26070,24 @@
         <v>1401</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>2155</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -26070,23 +26095,24 @@
         <v>1402</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>2156</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -26094,23 +26120,24 @@
         <v>1403</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>2157</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -26118,23 +26145,24 @@
         <v>1404</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>2158</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -26142,23 +26170,24 @@
         <v>1405</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>2159</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -26166,23 +26195,24 @@
         <v>1406</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>2160</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -26190,23 +26220,24 @@
         <v>1407</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>2161</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -26214,23 +26245,24 @@
         <v>1408</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>2162</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -26238,23 +26270,24 @@
         <v>1409</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>2163</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -26262,23 +26295,24 @@
         <v>1410</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>2164</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -26286,23 +26320,24 @@
         <v>1411</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>2165</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -26310,23 +26345,24 @@
         <v>1412</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>2166</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -26334,23 +26370,24 @@
         <v>1413</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>2167</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -26358,23 +26395,24 @@
         <v>1414</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>2168</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -26382,23 +26420,24 @@
         <v>1415</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>2169</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -26406,23 +26445,24 @@
         <v>1416</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>2170</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -26430,23 +26470,24 @@
         <v>1417</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>2171</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -26454,23 +26495,24 @@
         <v>1418</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>2172</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -26478,23 +26520,24 @@
         <v>1419</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>2173</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -26502,23 +26545,24 @@
         <v>1420</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>2174</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -26526,23 +26570,24 @@
         <v>1421</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>2175</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -26550,21 +26595,22 @@
         <v>1422</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2177</v>
+        <v>2934</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>2176</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H31" s="1"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -26583,7 +26629,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26599,42 +26645,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>2206</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>2207</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>2208</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>2209</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>2210</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>2213</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>2214</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>2215</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="F2" s="1">
         <v>5000</v>
@@ -26654,18 +26700,17 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="15" customWidth="1"/>
     <col min="2" max="3" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1470</v>
       </c>
@@ -26673,10 +26718,13 @@
         <v>1471</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2215</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -26686,8 +26734,9 @@
       <c r="C2" s="23" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26697,8 +26746,9 @@
       <c r="C3" s="23" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -26708,8 +26758,9 @@
       <c r="C4" s="23" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -26719,8 +26770,9 @@
       <c r="C5" s="23" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -26730,8 +26782,9 @@
       <c r="C6" s="23" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -26741,8 +26794,9 @@
       <c r="C7" s="23" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -26752,8 +26806,9 @@
       <c r="C8" s="23" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -26763,8 +26818,9 @@
       <c r="C9" s="23" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -26774,8 +26830,9 @@
       <c r="C10" s="23" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -26785,8 +26842,9 @@
       <c r="C11" s="23" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -26796,8 +26854,9 @@
       <c r="C12" s="23" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -26807,8 +26866,9 @@
       <c r="C13" s="23" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -26818,8 +26878,9 @@
       <c r="C14" s="23" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -26829,8 +26890,9 @@
       <c r="C15" s="23" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -26840,6 +26902,7 @@
       <c r="C16" s="23" t="s">
         <v>1441</v>
       </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -26851,6 +26914,7 @@
       <c r="C17" s="23" t="s">
         <v>1442</v>
       </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -26862,7 +26926,7 @@
       <c r="C18" s="23" t="s">
         <v>1459</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
@@ -26906,10 +26970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26919,10 +26983,11 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -26945,10 +27010,16 @@
         <v>1469</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -26956,7 +27027,7 @@
         <v>1295</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1461</v>
@@ -26970,9 +27041,13 @@
       <c r="G2" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26980,7 +27055,7 @@
         <v>1296</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1461</v>
@@ -26994,11 +27069,15 @@
       <c r="G3" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -27006,7 +27085,7 @@
         <v>1297</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1461</v>
@@ -27020,11 +27099,15 @@
       <c r="G4" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -27032,7 +27115,7 @@
         <v>1298</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1461</v>
@@ -27046,11 +27129,15 @@
       <c r="G5" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -27058,7 +27145,7 @@
         <v>1299</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1461</v>
@@ -27072,11 +27159,15 @@
       <c r="G6" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -27084,7 +27175,7 @@
         <v>1300</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1461</v>
@@ -27098,11 +27189,15 @@
       <c r="G7" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -27110,7 +27205,7 @@
         <v>1301</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1461</v>
@@ -27124,11 +27219,15 @@
       <c r="G8" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -27136,7 +27235,7 @@
         <v>1302</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1461</v>
@@ -27150,11 +27249,15 @@
       <c r="G9" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -27162,7 +27265,7 @@
         <v>1303</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1461</v>
@@ -27176,11 +27279,15 @@
       <c r="G10" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -27188,7 +27295,7 @@
         <v>1304</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1461</v>
@@ -27202,11 +27309,15 @@
       <c r="G11" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27214,7 +27325,7 @@
         <v>1305</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1461</v>
@@ -27228,7 +27339,11 @@
       <c r="G12" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -27239,10 +27354,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E59F379-F59F-4A8C-91BE-B849FE4EAFA7}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -27252,10 +27367,11 @@
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -27278,10 +27394,16 @@
         <v>1469</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -27289,7 +27411,7 @@
         <v>1306</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1461</v>
@@ -27303,9 +27425,13 @@
       <c r="G2" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -27313,7 +27439,7 @@
         <v>1307</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1461</v>
@@ -27327,11 +27453,15 @@
       <c r="G3" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -27339,7 +27469,7 @@
         <v>1308</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1461</v>
@@ -27353,11 +27483,15 @@
       <c r="G4" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -27365,7 +27499,7 @@
         <v>1309</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1461</v>
@@ -27379,11 +27513,15 @@
       <c r="G5" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -27391,7 +27529,7 @@
         <v>1310</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1461</v>
@@ -27405,11 +27543,15 @@
       <c r="G6" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -27417,7 +27559,7 @@
         <v>1311</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1461</v>
@@ -27431,11 +27573,15 @@
       <c r="G7" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -27443,7 +27589,7 @@
         <v>1312</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1461</v>
@@ -27457,11 +27603,15 @@
       <c r="G8" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -27469,7 +27619,7 @@
         <v>1313</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1461</v>
@@ -27483,11 +27633,15 @@
       <c r="G9" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -27495,7 +27649,7 @@
         <v>1315</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1461</v>
@@ -27509,11 +27663,15 @@
       <c r="G10" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -27521,7 +27679,7 @@
         <v>1314</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1461</v>
@@ -27535,11 +27693,15 @@
       <c r="G11" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27547,7 +27709,7 @@
         <v>1316</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1461</v>
@@ -27561,7 +27723,11 @@
       <c r="G12" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -27571,10 +27737,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C60A8-4CA7-4046-A310-C55BDD9C2327}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -27585,9 +27751,10 @@
     <col min="5" max="5" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -27612,8 +27779,11 @@
       <c r="H1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -27621,7 +27791,7 @@
         <v>1499</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1501</v>
@@ -27636,8 +27806,9 @@
         <v>1498</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -27645,7 +27816,7 @@
         <v>1500</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1501</v>
@@ -27660,8 +27831,9 @@
         <v>1498</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -27669,7 +27841,7 @@
         <v>1443</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1501</v>
@@ -27684,6 +27856,7 @@
         <v>1498</v>
       </c>
       <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -27693,10 +27866,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17E35AD-D0D1-4750-932D-1A4D83709A8E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -27707,9 +27880,10 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -27734,8 +27908,11 @@
       <c r="H1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -27743,7 +27920,7 @@
         <v>1349</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1501</v>
@@ -27758,8 +27935,9 @@
         <v>1498</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -27767,7 +27945,7 @@
         <v>1350</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1501</v>
@@ -27782,8 +27960,9 @@
         <v>1498</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -27791,7 +27970,7 @@
         <v>1351</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1501</v>
@@ -27806,8 +27985,9 @@
         <v>1498</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -27815,7 +27995,7 @@
         <v>1352</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1501</v>
@@ -27830,8 +28010,9 @@
         <v>1498</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -27839,7 +28020,7 @@
         <v>1353</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1501</v>
@@ -27854,8 +28035,9 @@
         <v>1498</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -27863,7 +28045,7 @@
         <v>1354</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1501</v>
@@ -27878,8 +28060,9 @@
         <v>1498</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -27887,7 +28070,7 @@
         <v>1355</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1501</v>
@@ -27902,8 +28085,9 @@
         <v>1498</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -27911,7 +28095,7 @@
         <v>1356</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1501</v>
@@ -27926,8 +28110,9 @@
         <v>1498</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -27935,7 +28120,7 @@
         <v>1357</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1501</v>
@@ -27950,8 +28135,9 @@
         <v>1498</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -27959,7 +28145,7 @@
         <v>1358</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1501</v>
@@ -27974,8 +28160,9 @@
         <v>1498</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27983,7 +28170,7 @@
         <v>1347</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1501</v>
@@ -27998,8 +28185,9 @@
         <v>1498</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -28007,7 +28195,7 @@
         <v>1348</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>1501</v>
@@ -28022,6 +28210,7 @@
         <v>1498</v>
       </c>
       <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -28031,10 +28220,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -28045,10 +28234,13 @@
     <col min="4" max="4" width="16.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="40.88671875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="4"/>
+    <col min="7" max="7" width="11.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -28073,8 +28265,11 @@
       <c r="H1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -28082,7 +28277,7 @@
         <v>1359</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>1502</v>
@@ -28097,8 +28292,9 @@
         <v>1538</v>
       </c>
       <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -28106,7 +28302,7 @@
         <v>1360</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>1502</v>
@@ -28121,8 +28317,9 @@
         <v>1538</v>
       </c>
       <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -28130,7 +28327,7 @@
         <v>1361</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>1502</v>
@@ -28145,8 +28342,9 @@
         <v>1538</v>
       </c>
       <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -28154,7 +28352,7 @@
         <v>1362</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>1502</v>
@@ -28169,8 +28367,9 @@
         <v>1538</v>
       </c>
       <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -28178,7 +28377,7 @@
         <v>1363</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>1502</v>
@@ -28193,8 +28392,9 @@
         <v>1538</v>
       </c>
       <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -28202,7 +28402,7 @@
         <v>1364</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>1502</v>
@@ -28217,8 +28417,9 @@
         <v>1538</v>
       </c>
       <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -28226,7 +28427,7 @@
         <v>1365</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>1502</v>
@@ -28241,8 +28442,9 @@
         <v>1538</v>
       </c>
       <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -28250,7 +28452,7 @@
         <v>1366</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>1502</v>
@@ -28265,8 +28467,9 @@
         <v>1538</v>
       </c>
       <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -28274,7 +28477,7 @@
         <v>1367</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>1502</v>
@@ -28289,8 +28492,9 @@
         <v>1538</v>
       </c>
       <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -28298,7 +28502,7 @@
         <v>1368</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>1502</v>
@@ -28313,8 +28517,9 @@
         <v>1538</v>
       </c>
       <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -28322,7 +28527,7 @@
         <v>1369</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>1502</v>
@@ -28337,8 +28542,9 @@
         <v>1538</v>
       </c>
       <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -28346,7 +28552,7 @@
         <v>1370</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>1502</v>
@@ -28361,8 +28567,9 @@
         <v>1538</v>
       </c>
       <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -28370,7 +28577,7 @@
         <v>1371</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>1502</v>
@@ -28385,8 +28592,9 @@
         <v>1538</v>
       </c>
       <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -28394,7 +28602,7 @@
         <v>1372</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1502</v>
@@ -28409,8 +28617,9 @@
         <v>1538</v>
       </c>
       <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -28418,7 +28627,7 @@
         <v>1373</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>1502</v>
@@ -28433,8 +28642,9 @@
         <v>1538</v>
       </c>
       <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -28442,7 +28652,7 @@
         <v>1374</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>1502</v>
@@ -28457,8 +28667,9 @@
         <v>1538</v>
       </c>
       <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -28466,7 +28677,7 @@
         <v>1375</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>1502</v>
@@ -28481,8 +28692,9 @@
         <v>1538</v>
       </c>
       <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -28490,7 +28702,7 @@
         <v>1376</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>1502</v>
@@ -28505,8 +28717,9 @@
         <v>1538</v>
       </c>
       <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -28514,7 +28727,7 @@
         <v>1377</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>1502</v>
@@ -28529,8 +28742,9 @@
         <v>1538</v>
       </c>
       <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -28538,7 +28752,7 @@
         <v>1378</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>1502</v>
@@ -28553,8 +28767,9 @@
         <v>1538</v>
       </c>
       <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -28562,7 +28777,7 @@
         <v>1379</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>1502</v>
@@ -28577,8 +28792,9 @@
         <v>1538</v>
       </c>
       <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -28586,7 +28802,7 @@
         <v>1380</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>1502</v>
@@ -28601,8 +28817,9 @@
         <v>1538</v>
       </c>
       <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -28610,7 +28827,7 @@
         <v>1381</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>1502</v>
@@ -28625,8 +28842,9 @@
         <v>1538</v>
       </c>
       <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -28634,7 +28852,7 @@
         <v>1382</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>1502</v>
@@ -28649,8 +28867,9 @@
         <v>1538</v>
       </c>
       <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -28658,7 +28877,7 @@
         <v>1383</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>1502</v>
@@ -28673,8 +28892,9 @@
         <v>1538</v>
       </c>
       <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -28682,7 +28902,7 @@
         <v>1384</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>1502</v>
@@ -28697,8 +28917,9 @@
         <v>1538</v>
       </c>
       <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -28706,7 +28927,7 @@
         <v>1385</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>1502</v>
@@ -28721,8 +28942,9 @@
         <v>1538</v>
       </c>
       <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -28730,7 +28952,7 @@
         <v>1386</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>1502</v>
@@ -28745,8 +28967,9 @@
         <v>1538</v>
       </c>
       <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>29</v>
       </c>
@@ -28754,7 +28977,7 @@
         <v>1387</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>1502</v>
@@ -28769,8 +28992,9 @@
         <v>1538</v>
       </c>
       <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -28778,7 +29002,7 @@
         <v>1388</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>1502</v>
@@ -28793,8 +29017,9 @@
         <v>1538</v>
       </c>
       <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>31</v>
       </c>
@@ -28802,7 +29027,7 @@
         <v>1389</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>1502</v>
@@ -28817,8 +29042,9 @@
         <v>1538</v>
       </c>
       <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>32</v>
       </c>
@@ -28826,7 +29052,7 @@
         <v>1390</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>1502</v>
@@ -28841,8 +29067,9 @@
         <v>1538</v>
       </c>
       <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>33</v>
       </c>
@@ -28850,7 +29077,7 @@
         <v>1391</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>1502</v>
@@ -28865,8 +29092,9 @@
         <v>1538</v>
       </c>
       <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>34</v>
       </c>
@@ -28874,7 +29102,7 @@
         <v>1392</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>1502</v>
@@ -28889,8 +29117,9 @@
         <v>1538</v>
       </c>
       <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>35</v>
       </c>
@@ -28898,7 +29127,7 @@
         <v>1444</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>1502</v>
@@ -28913,6 +29142,7 @@
         <v>1538</v>
       </c>
       <c r="H36" s="26"/>
+      <c r="I36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -28923,10 +29153,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -28937,9 +29167,11 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1464</v>
       </c>
@@ -28964,8 +29196,11 @@
       <c r="H1" s="21" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -28973,7 +29208,7 @@
         <v>1423</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1539</v>
@@ -28988,8 +29223,9 @@
         <v>1540</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -28997,7 +29233,7 @@
         <v>1424</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1539</v>
@@ -29012,8 +29248,9 @@
         <v>1540</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -29021,7 +29258,7 @@
         <v>1425</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1539</v>
@@ -29036,8 +29273,9 @@
         <v>1540</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -29045,7 +29283,7 @@
         <v>1426</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1539</v>
@@ -29060,43 +29298,44 @@
         <v>1540</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
